--- a/docs/database/bookinfo.xlsx
+++ b/docs/database/bookinfo.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="bookinfo" sheetId="1" r:id="rId1"/>
     <sheet name="curborrow" sheetId="2" r:id="rId2"/>
+    <sheet name="curappoint" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +164,18 @@
   </si>
   <si>
     <t>remainTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -526,82 +535,90 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -626,68 +643,125 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/database/bookinfo.xlsx
+++ b/docs/database/bookinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bookinfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Field</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,55 +127,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余续借次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readerid</t>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>borrowTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余续借次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remainTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>press</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +547,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -559,10 +571,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -651,56 +663,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +726,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -737,7 +749,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -745,7 +757,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -753,7 +765,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
